--- a/winners.xlsx
+++ b/winners.xlsx
@@ -1,37 +1,396 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>Audionic Bluetooth Headphone</t>
+  </si>
+  <si>
+    <t>Audionic Speaker Sugar 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronin Power Bank </t>
+  </si>
+  <si>
+    <t>Audionic solo x9</t>
+  </si>
+  <si>
+    <t>Mi Airdot</t>
+  </si>
+  <si>
+    <t>Ronin Wireless Headphone</t>
+  </si>
+  <si>
+    <t>L800 speaker</t>
+  </si>
+  <si>
+    <t>Ronin Charger</t>
+  </si>
+  <si>
+    <t>Android Box</t>
+  </si>
+  <si>
+    <t>Smart Watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audionic Speaker G5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdul Qadir Khambatwala </t>
+  </si>
+  <si>
+    <t>Hatim</t>
+  </si>
+  <si>
+    <t>Tasneem adnan</t>
+  </si>
+  <si>
+    <t>Zahra Burhanuddin</t>
+  </si>
+  <si>
+    <t>Abde Ali Sh Khuzema Jamali</t>
+  </si>
+  <si>
+    <t>Maria hussain</t>
+  </si>
+  <si>
+    <t>Farida mustafa</t>
+  </si>
+  <si>
+    <t>Zainab Ammar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amina mohammed </t>
+  </si>
+  <si>
+    <t>Juzer aqeel</t>
+  </si>
+  <si>
+    <t>Nisreen Mansoor Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danyal Valika </t>
+  </si>
+  <si>
+    <t>Aliakber Junagadh</t>
+  </si>
+  <si>
+    <t>Arwa Sh Idrees Haidry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saifuddin Ibrahim </t>
+  </si>
+  <si>
+    <t>Burhanuddin</t>
+  </si>
+  <si>
+    <t>Rashida Yousuf Sithpurwala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hussain Hasnain Dosaji </t>
+  </si>
+  <si>
+    <t>Insiyah akbar</t>
+  </si>
+  <si>
+    <t>Sakina nathani</t>
+  </si>
+  <si>
+    <t>Yousuf Ali</t>
+  </si>
+  <si>
+    <t>Ammar Jamali</t>
+  </si>
+  <si>
+    <t>Naqiya Shabbir</t>
+  </si>
+  <si>
+    <t>Burhanuddin Abid Hussain Shajapurwala</t>
+  </si>
+  <si>
+    <t>Mohammad Hussain</t>
+  </si>
+  <si>
+    <t>Jamila Yousuf</t>
+  </si>
+  <si>
+    <t>Abbas</t>
+  </si>
+  <si>
+    <t>ISMAIL SHABBIR HUSSAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shabbir Hussain </t>
+  </si>
+  <si>
+    <t>Rashida Adnan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shireen sh shabbir jamaly </t>
+  </si>
+  <si>
+    <t>Muhammad Abbs</t>
+  </si>
+  <si>
+    <t>Batool hussain bakoo</t>
+  </si>
+  <si>
+    <t>zahra tahir</t>
+  </si>
+  <si>
+    <t>Zoeb ali udaipurwala</t>
+  </si>
+  <si>
+    <t>Zainab adnan</t>
+  </si>
+  <si>
+    <t>hasnain shamsi</t>
+  </si>
+  <si>
+    <t>Hatim Saifuddin</t>
+  </si>
+  <si>
+    <t>Nafisa Adamali</t>
+  </si>
+  <si>
+    <t>Yousuf Quetta wala</t>
+  </si>
+  <si>
+    <t>Khozema</t>
+  </si>
+  <si>
+    <t>Ibrahim zoaib bhinderwala</t>
+  </si>
+  <si>
+    <t>Murtaza Muhammad Dohadwala</t>
+  </si>
+  <si>
+    <t>Amatullah Abid</t>
+  </si>
+  <si>
+    <t>Ruqaiyah Mustafa Tin Wala</t>
+  </si>
+  <si>
+    <t>Alifya Hussain</t>
+  </si>
+  <si>
+    <t>Tasneem ibrahim electric wala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sh Shabbir Husain Bhai Mandarsur wala </t>
+  </si>
+  <si>
+    <t>RASHIDA SHABBIR</t>
+  </si>
+  <si>
+    <t>Jumana</t>
+  </si>
+  <si>
+    <t>Mustafa Arabi</t>
+  </si>
+  <si>
+    <t>Farida</t>
+  </si>
+  <si>
+    <t>03316425253</t>
+  </si>
+  <si>
+    <t>03363593557</t>
+  </si>
+  <si>
+    <t>0343411288552</t>
+  </si>
+  <si>
+    <t>03232858452</t>
+  </si>
+  <si>
+    <t>03333217752</t>
+  </si>
+  <si>
+    <t>03132962621</t>
+  </si>
+  <si>
+    <t>03002921172</t>
+  </si>
+  <si>
+    <t>00923341392662</t>
+  </si>
+  <si>
+    <t>03373165621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0331 3685852 </t>
+  </si>
+  <si>
+    <t>0345-2713892</t>
+  </si>
+  <si>
+    <t>0300 8244938</t>
+  </si>
+  <si>
+    <t>03352210993</t>
+  </si>
+  <si>
+    <t>03333352976</t>
+  </si>
+  <si>
+    <t>03458244503</t>
+  </si>
+  <si>
+    <t>03212397252</t>
+  </si>
+  <si>
+    <t>+923343065253</t>
+  </si>
+  <si>
+    <t>03335077272</t>
+  </si>
+  <si>
+    <t>03322431531</t>
+  </si>
+  <si>
+    <t>03452135817</t>
+  </si>
+  <si>
+    <t>03002564543</t>
+  </si>
+  <si>
+    <t>03322534253</t>
+  </si>
+  <si>
+    <t>03323047554</t>
+  </si>
+  <si>
+    <t>03212660472</t>
+  </si>
+  <si>
+    <t>03312945253</t>
+  </si>
+  <si>
+    <t>03342314452</t>
+  </si>
+  <si>
+    <t>03332614494</t>
+  </si>
+  <si>
+    <t>03333864272</t>
+  </si>
+  <si>
+    <t>03333918009</t>
+  </si>
+  <si>
+    <t>03012394252</t>
+  </si>
+  <si>
+    <t>03333987079</t>
+  </si>
+  <si>
+    <t>03075553965</t>
+  </si>
+  <si>
+    <t>+923009219685</t>
+  </si>
+  <si>
+    <t>03313353586</t>
+  </si>
+  <si>
+    <t>03352103028</t>
+  </si>
+  <si>
+    <t>+923042875525</t>
+  </si>
+  <si>
+    <t>03057909186</t>
+  </si>
+  <si>
+    <t>03002241836</t>
+  </si>
+  <si>
+    <t>03452987331</t>
+  </si>
+  <si>
+    <t>03343183957</t>
+  </si>
+  <si>
+    <t>03442015252</t>
+  </si>
+  <si>
+    <t>03411131743</t>
+  </si>
+  <si>
+    <t>03332243189</t>
+  </si>
+  <si>
+    <t>03313662251</t>
+  </si>
+  <si>
+    <t>03360249210</t>
+  </si>
+  <si>
+    <t>03002140795</t>
+  </si>
+  <si>
+    <t>03323999052</t>
+  </si>
+  <si>
+    <t>03323497587</t>
+  </si>
+  <si>
+    <t>03343650843</t>
+  </si>
+  <si>
+    <t>03343010352</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +405,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -421,102 +721,770 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>phoneNumber</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>gift</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fatema sh hasnain</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>+923452752143</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ronin Charger</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ali Asghar</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>03322089123</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Audionic Speaker Sugar 20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Maria lamak furniture wala</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>03362544058</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Audionic solo x9</t>
-        </is>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>971525262653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>3132400952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>